--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
-    <col width="5" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="129" customWidth="1" min="11" max="11"/>
+    <col width="130" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -824,6 +824,382 @@
         </is>
       </c>
       <c r="K10" s="3" t="inlineStr"/>
+    </row>
+    <row r="11"/>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Message: dir_actuator_feedback</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x2968</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): AK10_9</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>-32000</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>32000</v>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>º</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Speed</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>-32000</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>32000</v>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>-20</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>127</v>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>º</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Error_codes</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>0=No Fault, 1=Motor Over-temperature, 2=Over-current, 3=Over-voltage, 4=Encode Fault, 5=Mosfet Over-temperature, 6=Motor Lock-up</t>
+        </is>
+      </c>
+    </row>
+    <row r="19"/>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Message: dir_act_possition_loop</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x468</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): JETSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="n"/>
+      <c r="I22" s="3" t="n"/>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
   <cols>
     <col width="33" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -1200,6 +1200,112 @@
         </is>
       </c>
       <c r="K22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23"/>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Message: dir</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x1</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>dir</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="n"/>
+      <c r="I26" s="3" t="n"/>
+      <c r="J26" s="3" t="n"/>
+      <c r="K26" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
   <cols>
     <col width="33" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -1200,112 +1200,6 @@
         </is>
       </c>
       <c r="K22" s="3" t="inlineStr"/>
-    </row>
-    <row r="23"/>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Message: dir</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x1</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>dir</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="n"/>
-      <c r="I26" s="3" t="n"/>
-      <c r="J26" s="3" t="n"/>
-      <c r="K26" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="autonomous_t26" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="aquisition_boards" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="aquisition_boards" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -438,780 +437,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="33" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="130" customWidth="1" min="11" max="11"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Message: ACU</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x51</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): ACU</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>IGN</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>0=OFF, 1=ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>ASMS</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="n"/>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>0=OFF, 1=ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>EMERGENCY</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="n"/>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>0=OFF, 1=ON</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>AS_STATE</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" s="3" t="n"/>
-      <c r="J6" s="3" t="n"/>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>1=OFF, 2=READY, 3=DRIVING, 4=EMERGENCY, 5=FINISH</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Mission_select</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" s="3" t="n"/>
-      <c r="J7" s="3" t="n"/>
-      <c r="K7" s="3" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>ACU_STATE</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" s="3" t="n"/>
-      <c r="J8" s="3" t="n"/>
-      <c r="K8" s="3" t="inlineStr">
-        <is>
-          <t>0=INIT, 1=MISSION_SELECT, 2=JETSON_WAITING, 3=INIT_SEQUENCE, 4=READY, 5=DRIVING, 6=EBS_ERROR, 7=EMERGENCY, 8=FINISHED, 9=MANUAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>ASSI_STATE</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="n"/>
-      <c r="I9" s="3" t="n"/>
-      <c r="J9" s="3" t="n"/>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>1=OFF, 2=READY, 3=DRIVING, 4=EMERGENCY, 5=FINISH</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>ACU_CPU_TEMP</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>255</v>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>º</t>
-        </is>
-      </c>
-      <c r="K10" s="3" t="inlineStr"/>
-    </row>
-    <row r="11"/>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Message: dir_actuator_feedback</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x2968</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): AK10_9</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>Position</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="n">
-        <v>-32000</v>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>32000</v>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>º</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>Speed</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="n">
-        <v>-32000</v>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>32000</v>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>RPM</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>Current</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3" t="n"/>
-      <c r="I16" s="3" t="n"/>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>Temperature</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>48</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="n">
-        <v>-20</v>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>127</v>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>º</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>Error_codes</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J18" s="3" t="n"/>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>0=No Fault, 1=Motor Over-temperature, 2=Over-current, 3=Over-voltage, 4=Encode Fault, 5=Mosfet Over-temperature, 6=Motor Lock-up</t>
-        </is>
-      </c>
-    </row>
-    <row r="19"/>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Message: dir_act_possition_loop</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>ID: 0x468</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>Sender(s): JETSON</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Signal Name</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Start Bit</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Length (bits)</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>Byte Order</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>Signed</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>Choices</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>RPM</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="n"/>
-      <c r="I22" s="3" t="n"/>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>RPM</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/dbc_signals.xlsx
+++ b/dbc_signals.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="aquisition_boards" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="autonomous_t26" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="aquisition_boards" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,6 +438,780 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="33" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="130" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Message: ACU</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x51</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): ACU</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>IGN</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>0=OFF, 1=ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>ASMS</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>0=OFF, 1=ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>EMERGENCY</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>0=OFF, 1=ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>AS_STATE</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>1=OFF, 2=READY, 3=DRIVING, 4=EMERGENCY, 5=FINISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Mission_select</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>ACU_STATE</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="n"/>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>0=INIT, 1=MISSION_SELECT, 2=JETSON_WAITING, 3=INIT_SEQUENCE, 4=READY, 5=DRIVING, 6=EBS_ERROR, 7=EMERGENCY, 8=FINISHED, 9=MANUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>ASSI_STATE</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="3" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>1=OFF, 2=READY, 3=DRIVING, 4=EMERGENCY, 5=FINISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>ACU_CPU_TEMP</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>º</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr"/>
+    </row>
+    <row r="11"/>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Message: dir_actuator_feedback</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x2968</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): AK10_9</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>-32000</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>32000</v>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>º</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Speed</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>-32000</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>32000</v>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>-20</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>127</v>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>º</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Error_codes</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>0=No Fault, 1=Motor Over-temperature, 2=Over-current, 3=Over-voltage, 4=Encode Fault, 5=Mosfet Over-temperature, 6=Motor Lock-up</t>
+        </is>
+      </c>
+    </row>
+    <row r="19"/>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Message: dir_act_possition_loop</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ID: 0x468</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Sender(s): JETSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Signal Name</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Start Bit</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Length (bits)</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Byte Order</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Signed</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Factor</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>Choices</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="n"/>
+      <c r="I22" s="3" t="n"/>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
